--- a/similarities/split_global/harmonic_similarity_timestamps_122.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_122.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,714 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_168</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['A:min7', 'D', 'G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['A:min7', 'D', 'G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:16.560000', '0:01:27.040000'), ('0:00:47.580000', '0:00:50.040000'), ('0:01:37.880000', '0:01:48.980000')]</t>
+          <t>('0:00:35.276145', '0:00:39.339638')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:03:56.400000', '0:04:02.100000'), ('0:00:23.980000', '0:00:29.420000'), ('0:00:09.720000', '0:00:13')]</t>
+          <t>('0:00:18.135000', '0:00:24.528000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=97.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=35.276145</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=23.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=9.72']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=18.135</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>jaah_47</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>jaah_53</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['Ab:min7', 'Db:7', 'Gb:maj6']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D:min7', 'G:7', 'A:min7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:08.220000', '0:00:22.200000')]</t>
+          <t>('0:01:09.240000', '0:01:13.720000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:06.820000')]</t>
+          <t>('0:06:57.600000', '0:07:04.150000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=8.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-47#t=69.24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=0.3']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=417.6</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:40.490000', '0:00:47.860000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:54.037586')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>jaah_4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:01:39.160000', '0:01:44.820000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:30.580000', '0:00:34.890000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=99.16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=30.58</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:35.888000', '0:00:38.359000')]</t>
+          <t>('0:00:17.737518', '0:00:22.996837')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:10.440000', '0:00:22.520000')]</t>
+          <t>('0:00:19.480000', '0:00:31.260000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=17.737518</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=10.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=19.48</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:01.420000', '0:01:14.480000')]</t>
+          <t>('0:01:08.820000', '0:01:17.920000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:03.260000', '0:00:20.100000')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=61.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=3.26']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D:7']]</t>
+          <t>['Bb:min', 'F:7', 'Bb:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'F:7']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:03.779977', '0:01:15.482834')]</t>
+          <t>('0:00:43.680000', '0:00:44.980000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:15.100000', '0:00:18.960000')]</t>
+          <t>('0:00:43.940000', '0:00:50.680000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-263#t=63.779977']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=43.68</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=15.1']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=43.94</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'A', 'D']]</t>
+          <t>['C', 'C/b7', 'F']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3', 'F', 'C/5', 'F/3', 'G/3', 'C']]</t>
+          <t>['D/2', 'D/3', 'G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:37.331000', '0:00:49.319000')]</t>
+          <t>('0:00:35.532000', '0:00:40.124000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:13.449451', '0:02:18.803650')]</t>
+          <t>('0:00:56.753520', '0:01:06.480506')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=37.331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=35.532</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=133.449451']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=56.75352</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Db:maj6/2', 'Ab', 'Db', 'Ab', 'Db:maj6/2', 'Ab']]</t>
+          <t>['G:min', 'F', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min7/b7', 'C:maj', 'F/5', 'C:maj', 'D:min7/b7', 'C:maj']]</t>
+          <t>['G:min/A#', 'F:maj/C', 'C:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:55.348000', '0:01:26.259000')]</t>
+          <t>('0:00:03.560725', '0:00:10.073922')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:08.557000', '0:00:20.792000')]</t>
+          <t>('0:01:13.560000', '0:01:18.160000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=55.348']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=3.560725</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=8.557']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=73.56</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#', 'F#:min'], ['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:10.780000', '0:00:16.280000'), ('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:00:37.995918', '0:00:46.610521')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:03.744784', '0:00:06.774988'), ('0:00:24.387324', '0:00:27.452358')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F#:min7', 'B:7', 'E']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:04.660000', '0:01:11.060000')]</t>
+          <t>('0:02:08.540000', '0:02:12.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:05.708194', '0:00:10.061936')]</t>
+          <t>('0:00:22.125076', '0:00:36.625937')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=64.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C', 'G']]</t>
+          <t>['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:57.401473', '0:01:02.625963')]</t>
+          <t>('0:01:04.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.860000', '0:00:24.540000')]</t>
+          <t>('0:01:03.040000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=57.401473']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=64.28</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=16.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.04</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:51.380000'), ('0:00:24.580000', '0:00:32.940000')]</t>
+          <t>('0:00:21.900000', '0:00:24.630000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000'), ('0:00:23.420000', '0:00:31.440000')]</t>
+          <t>('0:00:53.250000', '0:00:54.920000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=24.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=21.9</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=23.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=53.25</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj'], ['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'A'], ['A:7', 'D', 'G', 'D']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:04.440000'), ('0:00:52.020000', '0:01:00.860000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:04.063000', '0:00:08.399000'), ('0:00:28.197000', '0:00:34.358000')]</t>
+          <t>('0:00:03.129454', '0:00:05.172811')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=4.063', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=28.197']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:58.080000')]</t>
+          <t>('0:00:44.300045', '0:00:57.976598')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:23.800000', '0:00:55.360000')]</t>
+          <t>('0:02:07.600000', '0:02:13.760000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=44.300045</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=23.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
